--- a/data/transformed_data_2015.xlsx
+++ b/data/transformed_data_2015.xlsx
@@ -29532,7 +29532,7 @@
         <v>33</v>
       </c>
       <c r="D52">
-        <v>425.27473543101</v>
+        <v>238.9778922705341</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -29574,7 +29574,7 @@
         <v>5</v>
       </c>
       <c r="D55">
-        <v>539.9402985074626</v>
+        <v>2046.089552238806</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -29602,7 +29602,7 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <v>2301.850746268657</v>
+        <v>795.7014925373136</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -29938,7 +29938,7 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>18.51887955777875</v>
+        <v>19.68044776119405</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -29966,7 +29966,7 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>2087.648476764061</v>
+        <v>2086.486908560646</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -30386,7 +30386,7 @@
         <v>11</v>
       </c>
       <c r="D113">
-        <v>4527.100269350129</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -30456,7 +30456,7 @@
         <v>46</v>
       </c>
       <c r="D118">
-        <v>1395.020269350129</v>
+        <v>63.92000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -30568,7 +30568,7 @@
         <v>11</v>
       </c>
       <c r="D126">
-        <v>4090.039730649871</v>
+        <v>2887.448079658606</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -30638,7 +30638,7 @@
         <v>46</v>
       </c>
       <c r="D131">
-        <v>1260.340612584437</v>
+        <v>57.74896159317223</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -31002,7 +31002,7 @@
         <v>46</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>840.0842552461595</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -31024,13 +31024,13 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D159">
-        <v>1507.310821934759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -31108,13 +31108,13 @@
         <v>11</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>2533.691920341394</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -31581,10 +31581,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C199" t="s">
         <v>17</v>
@@ -31595,10 +31595,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>17</v>
@@ -31609,10 +31609,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
@@ -31623,10 +31623,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>17</v>
@@ -31637,10 +31637,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C203" t="s">
         <v>17</v>
@@ -31651,10 +31651,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B204" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>17</v>
@@ -31665,10 +31665,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
         <v>17</v>
@@ -31679,10 +31679,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B206" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
@@ -31693,10 +31693,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
@@ -31707,10 +31707,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
@@ -31721,10 +31721,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -31735,10 +31735,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B210" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
         <v>17</v>

--- a/data/transformed_data_2015.xlsx
+++ b/data/transformed_data_2015.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17544" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17541" uniqueCount="45">
   <si>
     <t>source</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Imports of end-use goods</t>
   </si>
   <si>
-    <t>Imports of waste</t>
+    <t>Imports of loss</t>
   </si>
   <si>
     <t>Imports of generated scrap</t>
@@ -138,7 +138,7 @@
     <t>Reference flow start</t>
   </si>
   <si>
-    <t>Waste</t>
+    <t>Loss</t>
   </si>
   <si>
     <t>Exports of iron ore</t>
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>24248.8348770586</v>
+        <v>24400.71399368008</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>40442.74272985139</v>
+        <v>41671.58285524324</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2036.854733542321</v>
+        <v>2089.69485893417</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>45331.86</v>
+        <v>46507.86</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>527225</v>
+        <v>543874.2105263158</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>10544.5</v>
+        <v>27193.71052631584</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>313091.8634423898</v>
+        <v>322978.9749195179</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>6261.837268847798</v>
+        <v>16148.94874597591</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2400,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>137836.3580946619</v>
+        <v>112680.7553332312</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2498,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>53523.86344238976</v>
+        <v>78884.18544583372</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>71.5</v>
+        <v>68.64000665156627</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>400865.6237059444</v>
+        <v>400862.763712596</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3240,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="D193">
-        <v>242185.18623395</v>
+        <v>242185.1862339499</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5143,7 +5143,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>5580.997989069489</v>
+        <v>5493.60549624524</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5311,7 +5311,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>8531.25</v>
+        <v>8618.64249282425</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6668,7 +6668,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1359.002610147634</v>
+        <v>1377.354670072727</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6906,7 +6906,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>14241.78209540074</v>
+        <v>14390.26694388559</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7004,7 +7004,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>752.17918495298</v>
+        <v>758.5640334378259</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7102,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>16740.36</v>
+        <v>16882.46</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7284,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>13113.18378011327</v>
+        <v>13188.59472832127</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7354,7 +7354,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1769.683780113273</v>
+        <v>1845.094728321268</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7452,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>11596.53621988673</v>
+        <v>11663.22527167873</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7522,7 +7522,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1565.005295277906</v>
+        <v>1631.69434706991</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7858,7 +7858,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>6307.7537783239</v>
+        <v>6332.49068673384</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>29674.45</v>
+        <v>28524.59491778774</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>8603.206163832139</v>
+        <v>7453.35108161988</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -13358,7 +13358,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>3907.562765422161</v>
+        <v>3911.247251403469</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -13526,7 +13526,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>114.4</v>
+        <v>110.7155140186916</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -14208,7 +14208,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14883,7 +14883,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>238.7078320000005</v>
+        <v>263.714884631579</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -15121,7 +15121,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>4053.625457552241</v>
+        <v>3923.310351299927</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -15219,7 +15219,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>316.9288157611963</v>
+        <v>186.6137095088825</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -15499,7 +15499,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>7199</v>
+        <v>7426.336842105263</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -15569,7 +15569,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>143.9800000000005</v>
+        <v>371.3168421052633</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -16087,7 +16087,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>901.4148837677367</v>
+        <v>933.5744197488614</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -16123,13 +16123,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>332.6448957259981</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -16171,7 +16171,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>1110.26</v>
+        <v>1337.596842105263</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -16255,7 +16255,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>172.9</v>
+        <v>140.7404640188753</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -16652,10 +16652,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -16666,10 +16666,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -16680,10 +16680,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -16694,10 +16694,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -16708,10 +16708,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -16722,10 +16722,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -16736,10 +16736,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -16750,10 +16750,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -16764,10 +16764,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -16778,10 +16778,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -16792,10 +16792,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C185" t="s">
         <v>16</v>
@@ -16806,10 +16806,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>16</v>
@@ -16820,10 +16820,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
         <v>16</v>
@@ -16834,7 +16834,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
@@ -16848,10 +16848,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>16</v>
@@ -16862,7 +16862,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -16876,43 +16876,29 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C192" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D192">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
-        <v>30</v>
-      </c>
-      <c r="B193" t="s">
-        <v>42</v>
-      </c>
-      <c r="C193" t="s">
-        <v>44</v>
-      </c>
-      <c r="D193">
         <v>30000</v>
       </c>
     </row>
@@ -24456,7 +24442,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>23961.6</v>
+        <v>22092.87754218953</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -24624,7 +24610,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3216.450558518667</v>
+        <v>1347.728100708195</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -25827,7 +25813,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>238.9778922705341</v>
+        <v>425.27473543101</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -26443,7 +26429,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>3196</v>
+        <v>4527.100269350129</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -26513,7 +26499,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>63.92000000000007</v>
+        <v>1395.020269350129</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -26611,7 +26597,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>2887.448079658606</v>
+        <v>4090.039730649871</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -26681,7 +26667,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>57.74896159317223</v>
+        <v>1260.340612584437</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -27017,7 +27003,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>840.0842552461595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -27067,13 +27053,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1507.310821934759</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -27109,13 +27095,13 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D140">
-        <v>2533.691920341394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -27199,7 +27185,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>2034.5</v>
+        <v>1751.407068062827</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -27367,7 +27353,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>2713.007597866559</v>
+        <v>2429.914665929387</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -27610,10 +27596,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B176" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -27624,10 +27610,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -27638,10 +27624,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -27652,10 +27638,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -27666,10 +27652,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -27680,10 +27666,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -31299,7 +31285,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2467.1802747822</v>
+        <v>2470.34442304515</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -31537,7 +31523,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>18552.098478326</v>
+        <v>18577.69931427167</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -31635,7 +31621,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2236.238140020898</v>
+        <v>2237.338975966566</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -31733,7 +31719,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>49769.3</v>
+        <v>49793.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -31915,7 +31901,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>43623.87339076082</v>
+        <v>43636.12770084733</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -31985,7 +31971,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>180.473390760817</v>
+        <v>192.7277008473247</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -32083,7 +32069,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>43593.18660923919</v>
+        <v>43605.43229915269</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -32153,7 +32139,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>180.3464385421685</v>
+        <v>192.592128455668</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -32489,7 +32475,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>12561.68573572853</v>
+        <v>12565.95071993714</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -32503,7 +32489,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>7493.680238340865</v>
+        <v>7620.021475638874</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -32671,7 +32657,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>2737.15</v>
+        <v>2610.808762701985</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -34252,7 +34238,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>2175.114374153943</v>
+        <v>2254.92</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -34266,7 +34252,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2718.38159373389</v>
+        <v>2638.575967887833</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -35254,13 +35240,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>79.80562584605741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -35268,13 +35254,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>79.80562584605765</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -35400,7 +35386,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>103.35</v>
+        <v>99.428</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -35568,7 +35554,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1910.061683606722</v>
+        <v>1906.139683606722</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -35783,10 +35769,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -35797,10 +35783,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -36981,7 +36967,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>3288.971590486022</v>
+        <v>3507.52379335564</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -36995,7 +36981,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>2031.679255908962</v>
+        <v>1813.127053039344</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -37983,13 +37969,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>218.5522028696182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -37997,13 +37983,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>218.552202869618</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -38512,10 +38498,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -38526,10 +38512,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -39486,7 +39472,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>295.5081149174698</v>
+        <v>296.9003401531668</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -39724,7 +39710,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>603.4072038709278</v>
+        <v>614.6715716870197</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -39822,7 +39808,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>28.88593521421114</v>
+        <v>29.37030303030303</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -39920,7 +39906,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>642.88</v>
+        <v>653.66</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -40102,7 +40088,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>2094.215774842608</v>
+        <v>2097.081351845129</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -40172,7 +40158,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>155.7757748426079</v>
+        <v>158.6413518451291</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -40270,7 +40256,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>5784.004225157391</v>
+        <v>5791.91864815487</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -40340,7 +40326,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>430.236344645301</v>
+        <v>438.1507676427791</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -40676,7 +40662,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1668.006185581035</v>
+        <v>1669.882778632825</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -44972,7 +44958,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1214.880590788791</v>
+        <v>1216.019684163452</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -45210,7 +45196,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1487.845431307411</v>
+        <v>1497.06173224785</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -45308,7 +45294,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>81.32975966562185</v>
+        <v>81.72606060606063</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -45406,7 +45392,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1810.06</v>
+        <v>1818.88</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -45588,7 +45574,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>3498.475513891534</v>
+        <v>3502.14781149184</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -45658,7 +45644,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>293.8755138915344</v>
+        <v>297.5478114918405</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -45756,7 +45742,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>4904.044486108463</v>
+        <v>4909.192188508157</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -45826,7 +45812,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>411.9447421539826</v>
+        <v>417.0924445536766</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -46162,7 +46148,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>9292.939186971684</v>
+        <v>9294.474581286784</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -51830,7 +51816,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>526843.85</v>
+        <v>501394.2349947277</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -51998,7 +51984,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>29267.71253396396</v>
+        <v>3818.097528691636</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -54573,7 +54559,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>42415.1</v>
+        <v>41228.52512155592</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -54741,7 +54727,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1701.886756566368</v>
+        <v>515.3118781222875</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -56560,7 +56546,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>3340</v>
+        <v>3445.473684210526</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -56630,7 +56616,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>66.80000000000018</v>
+        <v>172.2736842105264</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -56728,7 +56714,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>861.7652916073969</v>
+        <v>888.978932394999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -56798,7 +56784,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>17.2353058321479</v>
+        <v>44.44894661975002</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -57134,7 +57120,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1724.312622828566</v>
+        <v>1591.625297830437</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -57232,7 +57218,7 @@
         <v>16</v>
       </c>
       <c r="D140">
-        <v>441.5052916073973</v>
+        <v>574.1926166055264</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -57316,7 +57302,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>8620.300000000001</v>
+        <v>8324.455384615385</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -57484,7 +57470,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>8939.944762000605</v>
+        <v>8644.100146615989</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -61402,7 +61388,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>4935.815947075935</v>
+        <v>4976.317044841664</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -61640,7 +61626,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>23072.9339381463</v>
+        <v>23400.62463825079</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -61738,7 +61724,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1045.045579937305</v>
+        <v>1059.136280041799</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -61836,7 +61822,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>23258.34</v>
+        <v>23571.94</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -62018,7 +62004,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>32798.99708256622</v>
+        <v>32903.79039566201</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -62088,7 +62074,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2843.337082566224</v>
+        <v>2948.130395662014</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -62186,7 +62172,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>65353.88291743378</v>
+        <v>65562.68960433801</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -62256,7 +62242,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>5665.512220420977</v>
+        <v>5874.318907325207</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -62592,7 +62578,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>29794.90126375771</v>
+        <v>29849.49306162791</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -64145,7 +64131,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>353.7915280532634</v>
+        <v>356.1962807331033</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -64383,7 +64369,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1293.314493597841</v>
+        <v>1312.771128916546</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -64481,7 +64467,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>72.56710553814014</v>
+        <v>73.40374085684448</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -64579,7 +64565,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1615.04</v>
+        <v>1633.66</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -64761,7 +64747,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>993.9555378750206</v>
+        <v>998.0538788515017</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -64831,7 +64817,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>160.9555378750206</v>
+        <v>165.0538788515017</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -64929,7 +64915,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>3521.884462124979</v>
+        <v>3536.406121148497</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -64999,7 +64985,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>570.3140496071978</v>
+        <v>584.8357086307165</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -65335,7 +65321,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>2111.781173431322</v>
+        <v>2115.022561429867</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -65517,7 +65503,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>13058.5</v>
+        <v>12464</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -65685,7 +65671,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>684.0056858206699</v>
+        <v>89.5056858206699</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -68260,7 +68246,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>5302.05</v>
+        <v>5095.913232104122</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -68428,7 +68414,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1708.928333501056</v>
+        <v>1502.791565605177</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -69631,7 +69617,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>3644.513035770393</v>
+        <v>3821.705338495438</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -69869,7 +69855,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>13760.25201126032</v>
+        <v>15193.89882421748</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -69967,7 +69953,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>889.4754440961333</v>
+        <v>951.1222570532918</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -70065,7 +70051,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>19796</v>
+        <v>21168</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -70247,7 +70233,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>22751.3613968748</v>
+        <v>23346.19044661755</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -70317,7 +70303,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2645.681396874799</v>
+        <v>3240.510446617551</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -70415,7 +70401,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>29725.6786031252</v>
+        <v>30502.84955338245</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -70485,7 +70471,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3456.701931716954</v>
+        <v>4233.872881974203</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -70821,7 +70807,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>23188.76582623285</v>
+        <v>23427.60494191505</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -71003,7 +70989,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>13806.65</v>
+        <v>12532.20891844551</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -71171,7 +71157,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>9197.919699104355</v>
+        <v>7923.478617549863</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -72374,7 +72360,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2614.211222269128</v>
+        <v>2645.8527048986</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -72612,7 +72598,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>16250.21698560489</v>
+        <v>16506.22534506152</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -72710,7 +72696,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>921.2235527690718</v>
+        <v>932.2319122257068</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -72808,7 +72794,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>20502.58</v>
+        <v>20747.58</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -72990,7 +72976,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>21472.51724664827</v>
+        <v>21547.2032240491</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -73060,7 +73046,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1628.497246648269</v>
+        <v>1703.183224049098</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -73158,7 +73144,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>48965.96275335174</v>
+        <v>49136.27677595091</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -73228,7 +73214,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3713.627732014611</v>
+        <v>3883.941754613777</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -73564,7 +73550,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>12533.39708443289</v>
+        <v>12576.046926519</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -75117,7 +75103,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2437.267199839625</v>
+        <v>2438.026595422732</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -75355,7 +75341,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>10248.8870456495</v>
+        <v>10255.03124627646</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -75453,7 +75439,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>555.5258516196445</v>
+        <v>555.7900522466061</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -75551,7 +75537,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>12363.68</v>
+        <v>12369.56</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -75733,7 +75719,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>15563.00490264658</v>
+        <v>15565.19451080246</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -75803,7 +75789,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2102.704902646577</v>
+        <v>2104.894510802462</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -75901,7 +75887,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>26230.07509735341</v>
+        <v>26233.76548919753</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -75971,7 +75957,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3543.924058946588</v>
+        <v>3547.614450790705</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -76307,7 +76293,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>12506.59603702646</v>
+        <v>12507.61963323653</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -80603,7 +80589,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1405.622839820657</v>
+        <v>1409.293251805675</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -80841,7 +80827,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>5186.801836975002</v>
+        <v>5216.498806671971</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -80939,7 +80925,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>294.627732497388</v>
+        <v>295.9047021943579</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -81037,7 +81023,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>6557.18</v>
+        <v>6585.599999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -81219,7 +81205,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>10274.49912852997</v>
+        <v>10286.61873295248</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -81289,7 +81275,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>796.9191285299748</v>
+        <v>809.038732952482</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -81387,7 +81373,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>13818.80087147003</v>
+        <v>13835.10126704752</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -81457,7 +81443,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1071.825167344849</v>
+        <v>1088.12556292234</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -81793,7 +81779,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>8789.006958462713</v>
+        <v>8793.954340144703</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -81807,7 +81793,7 @@
         <v>16</v>
       </c>
       <c r="D134">
-        <v>10950.41001308244</v>
+        <v>14736.71579808745</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -81975,7 +81961,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>238026.1</v>
+        <v>234239.794214995</v>
       </c>
     </row>
     <row r="147" spans="1:4">

--- a/data/transformed_data_2015.xlsx
+++ b/data/transformed_data_2015.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>611642.2281092461</v>
+        <v>619956.4109092461</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>69045.89999999999</v>
+        <v>59379.47399999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9658.879999999999</v>
+        <v>8306.6368</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5101,7 +5101,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17849.87596358464</v>
+        <v>17612.10836358464</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5437,7 +5437,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>53.9</v>
+        <v>46.354</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5605,7 +5605,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1752.24</v>
+        <v>1506.9264</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15931.64459516359</v>
+        <v>16717.52619516358</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12969.32</v>
+        <v>11153.6152</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7355.88</v>
+        <v>6326.056799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3305.283304125178</v>
+        <v>3295.816504125178</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>740.88</v>
+        <v>637.1568</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>808.5</v>
+        <v>695.3099999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13316,7 +13316,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16145.31060768137</v>
+        <v>16784.93700768136</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13652,7 +13652,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14039.48</v>
+        <v>12073.9528</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13820,7 +13820,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9470.719999999999</v>
+        <v>8144.819199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19875.9288</v>
+        <v>19717.7372</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>856.52</v>
+        <v>736.6071999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1986.46</v>
+        <v>1708.3556</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18746,7 +18746,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14655.38772347084</v>
+        <v>14168.87652347084</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19082,7 +19082,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8389.780000000001</v>
+        <v>7215.2108</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19250,7 +19250,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11864.86</v>
+        <v>10203.7796</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21489,7 +21489,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9161.022407396871</v>
+        <v>9421.56520739687</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21825,7 +21825,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9020.9</v>
+        <v>7757.974</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -21993,7 +21993,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7159.88</v>
+        <v>6157.4968</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24232,7 +24232,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16886.82764950213</v>
+        <v>16103.00404950213</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24568,7 +24568,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5571.3</v>
+        <v>4791.318</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24736,7 +24736,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11170.04</v>
+        <v>9606.234400000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -26975,7 +26975,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12771.32604153627</v>
+        <v>12406.64844153627</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27311,7 +27311,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1610.14</v>
+        <v>1384.7204</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27479,7 +27479,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4214.98</v>
+        <v>3624.8828</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29704,7 +29704,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8337.605329729729</v>
+        <v>8668.943329729729</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30040,7 +30040,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9212</v>
+        <v>7922.32</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30208,7 +30208,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6845.3</v>
+        <v>5886.958</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32447,7 +32447,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>83515.99414679942</v>
+        <v>83572.65774679942</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32783,7 +32783,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4954.88</v>
+        <v>4261.1968</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32951,7 +32951,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4550.14</v>
+        <v>3913.1204</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35176,7 +35176,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11362.55368136557</v>
+        <v>11221.51208136558</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35512,7 +35512,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>129.36</v>
+        <v>111.2496</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35680,7 +35680,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1136.8</v>
+        <v>977.648</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37905,7 +37905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14414.45431920341</v>
+        <v>13672.06511920341</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38241,7 +38241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>704.62</v>
+        <v>605.9732</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38409,7 +38409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6007.4</v>
+        <v>5166.364</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40634,7 +40634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3709.088777240399</v>
+        <v>3695.917577240399</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40970,7 +40970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3611.3</v>
+        <v>3105.718</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41138,7 +41138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3705.38</v>
+        <v>3186.6268</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43377,7 +43377,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3163.108863157896</v>
+        <v>3124.418463157896</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43713,7 +43713,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6689.48</v>
+        <v>5752.9528</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43881,7 +43881,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6965.84</v>
+        <v>5990.6224</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46120,7 +46120,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14352.91017980085</v>
+        <v>13524.49657980085</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46456,7 +46456,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5698.7</v>
+        <v>4900.882</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46624,7 +46624,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11615.94</v>
+        <v>9989.7084</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48863,7 +48863,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3189.442174110953</v>
+        <v>3096.694974110953</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49199,7 +49199,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5482.12</v>
+        <v>4714.6232</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49367,7 +49367,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6144.599999999999</v>
+        <v>5284.356</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51606,7 +51606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9275.172612233286</v>
+        <v>8597.816212233285</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51942,7 +51942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>872.1999999999999</v>
+        <v>750.092</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52110,7 +52110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5710.46</v>
+        <v>4910.9956</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54349,7 +54349,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4692.292582645803</v>
+        <v>4678.160982645803</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54685,7 +54685,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1487.64</v>
+        <v>1279.3704</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54853,7 +54853,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1588.58</v>
+        <v>1366.1788</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57092,7 +57092,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9887.943387766714</v>
+        <v>9816.599387766713</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57428,7 +57428,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1857.1</v>
+        <v>1597.106</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57596,7 +57596,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2366.7</v>
+        <v>2035.362</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59821,7 +59821,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13717.04483300142</v>
+        <v>13943.28763300142</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60157,7 +60157,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4868.64</v>
+        <v>4187.0304</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60325,7 +60325,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3252.62</v>
+        <v>2797.2532</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62550,7 +62550,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>40558.447199431</v>
+        <v>42563.487999431</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62886,7 +62886,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21314.02</v>
+        <v>18330.0572</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63054,7 +63054,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6992.3</v>
+        <v>6013.378</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65293,7 +65293,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3552.454554765292</v>
+        <v>3476.445754765291</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65629,7 +65629,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2649.92</v>
+        <v>2278.9312</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65797,7 +65797,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3192.84</v>
+        <v>2745.8424</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68036,7 +68036,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>101572.1741621622</v>
+        <v>98449.77656216217</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68372,7 +68372,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19537.28</v>
+        <v>16802.0608</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68540,7 +68540,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>41840.12</v>
+        <v>35982.5032</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70779,7 +70779,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>37363.38913741109</v>
+        <v>36819.66553741109</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71115,7 +71115,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2181.48</v>
+        <v>1876.0728</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71283,7 +71283,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6065.22</v>
+        <v>5216.089199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73522,7 +73522,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>33218.68051834993</v>
+        <v>35426.50291834993</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73858,7 +73858,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22241.1</v>
+        <v>19127.346</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74026,7 +74026,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6470.94</v>
+        <v>5565.0084</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76265,7 +76265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22027.14149302987</v>
+        <v>23447.16149302987</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76601,7 +76601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>31556.98</v>
+        <v>27139.0028</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76769,7 +76769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>21413.98</v>
+        <v>18416.0228</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79008,7 +79008,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>28405.21844950213</v>
+        <v>28659.31284950213</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79344,7 +79344,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6201.44</v>
+        <v>5333.2384</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79512,7 +79512,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4386.48</v>
+        <v>3772.3728</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81751,7 +81751,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19740.33750554765</v>
+        <v>19555.66630554765</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82087,7 +82087,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2309.86</v>
+        <v>1986.4796</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82255,7 +82255,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3628.94</v>
+        <v>3120.8884</v>
       </c>
     </row>
     <row r="168" spans="1:4">
